--- a/data/out/people.xlsx
+++ b/data/out/people.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,12 +421,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="16" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="17" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
-    <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -445,147 +442,72 @@
           <t>city</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>occupation</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>salary</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>department</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Иван Петров</t>
+          <t>Андрей Волков</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Инженер</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>75000</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>IT</t>
+          <t>Казань</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Мария Сидорова</t>
+          <t>Ольга Белова</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Дизайнер</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>65000</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Design</t>
+          <t>Екатеринбург</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Алексей Козлов</t>
+          <t>Дмитрий Соколов</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Новосибирск</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Разработчик</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>80000</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>IT</t>
+          <t>Краснодар</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Елена Новикова</t>
+          <t>Наталья Морозова</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Менеджер</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>55000</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Sales</t>
+          <t>Сочи</t>
         </is>
       </c>
     </row>
